--- a/data/Parametric_Data.xlsx
+++ b/data/Parametric_Data.xlsx
@@ -992,9 +992,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1003,6 +1000,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1517,7 +1517,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,10 +1534,10 @@
       <c r="A1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D1" s="26" t="s">
@@ -1546,30 +1546,30 @@
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="46">
         <v>0.01</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="46">
         <v>25</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -2610,11 +2610,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
@@ -2650,11 +2650,11 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
@@ -2700,11 +2700,11 @@
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">

--- a/data/Parametric_Data.xlsx
+++ b/data/Parametric_Data.xlsx
@@ -618,7 +618,7 @@
     <t>rocket_cop_bias</t>
   </si>
   <si>
-    <t>simtime</t>
+    <t>simulation_duration</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1517,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
